--- a/Obama_Admin.xlsx
+++ b/Obama_Admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleymathew/Downloads/Spring 2023/Advanced Policy Analysis/Repositories/Contracting_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D9825A-3993-F345-B3A0-F940213186F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A379ADD7-A8C9-E64B-9AED-FD0FF418AA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14820" yWindow="740" windowWidth="14580" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>Other Minority Owned Business Dollars</t>
   </si>
   <si>
-    <t>DEPT OF DEFENSE</t>
-  </si>
-  <si>
     <t>DEPARTMENT OF ENERGY</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>DEPARTMENT OF HOUSING AND URBAN DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF DEFENSE</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -638,7 +638,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4">
         <v>2625406763072.21</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7">
         <v>213713392227.35999</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="4" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4">
         <v>166802099480.13</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7">
         <v>148221607576.17001</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7">
         <v>106027337572.11</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7">
         <v>69068379412.589996</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4">
         <v>67071898996.110001</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="7">
         <v>58097243093.120003</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4">
         <v>51936988991.300003</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7">
         <v>44905370233.470001</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="7">
         <v>34853837966.870003</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4">
         <v>23270073348.389999</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7">
         <v>18402961396.040001</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4">
         <v>15950768347.879999</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="16" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7">
         <v>10567067191.4</v>
